--- a/code_overview.xlsx
+++ b/code_overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/jb4424_cumc_columbia_edu/Documents/Brain_mets/Revision/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/st3179/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{80FE1AE7-E7A1-3340-8672-F027EEA5A4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A4A270-CFDA-3248-89F6-7A9E9994BA4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12384DF3-8FDB-6F43-A63F-4FCC7858285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="24560" windowWidth="31880" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_overview" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="223">
   <si>
     <t>File name</t>
   </si>
@@ -494,9 +494,6 @@
     <t>Modified version of perm.t.test from GmAMisc (Original version: https://CRAN.R-project.org/package=GmAMisc)</t>
   </si>
   <si>
-    <t>KINOMO/</t>
-  </si>
-  <si>
     <t>Sample-wise Seurat objects (tumor cells) for generating meta-gene heatmaps; top100 meta-genes per rank factors consolidated in a matrix for generating the co-correlation plot</t>
   </si>
   <si>
@@ -690,6 +687,21 @@
   </si>
   <si>
     <t>Table S8</t>
+  </si>
+  <si>
+    <t>https://github.com/IzarLab/KINOMO</t>
+  </si>
+  <si>
+    <t>Master_regulator_analysis/ARACNe.zip</t>
+  </si>
+  <si>
+    <t>Regulatory Network reconstruction using ARACNE-AP</t>
+  </si>
+  <si>
+    <t>Gene Expression data (.rds)</t>
+  </si>
+  <si>
+    <t>Regulatory network</t>
   </si>
 </sst>
 </file>
@@ -1565,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,19 +1614,19 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>147</v>
@@ -1634,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
@@ -1651,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1674,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
@@ -1694,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>147</v>
@@ -1705,16 +1717,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>9</v>
@@ -1722,19 +1734,19 @@
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>9</v>
@@ -1742,19 +1754,19 @@
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>9</v>
@@ -1782,19 +1794,19 @@
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
@@ -1808,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>17</v>
@@ -1828,13 +1840,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>9</v>
@@ -1854,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>9</v>
@@ -1874,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>9</v>
@@ -1894,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>9</v>
@@ -1974,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>9</v>
@@ -2374,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2422,213 +2434,209 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="C48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>202</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="E52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="D53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>185</v>
+      <c r="E53" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>9</v>
@@ -2636,19 +2644,19 @@
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>9</v>
@@ -2656,139 +2664,139 @@
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="E61" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="C62" s="8" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>9</v>
@@ -2796,59 +2804,59 @@
     </row>
     <row r="63" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="E64" s="8" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>147</v>
@@ -2856,53 +2864,53 @@
     </row>
     <row r="66" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>9</v>
@@ -2911,26 +2919,46 @@
         <v>190</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="B70" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>9</v>
       </c>
     </row>
